--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/01. Báo giá bảo hành/BG_.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/01. Báo giá bảo hành/BG_.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 11\01. Báo giá bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10120349-8BAA-4ECA-A1C8-B67D33ED100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BG!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BG!$A$1:$J$24</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -30,12 +31,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -45,9 +40,6 @@
     <t>Hạn BH</t>
   </si>
   <si>
-    <t>Xác định lỗi</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
@@ -60,12 +52,6 @@
     <t xml:space="preserve">Email: </t>
   </si>
   <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Đơn vị tính</t>
-  </si>
-  <si>
     <t>ID/ IMEI</t>
   </si>
   <si>
@@ -78,22 +64,38 @@
     <t>Điện thoại: 0243 6400 767</t>
   </si>
   <si>
-    <t>Mô tả linh kiện thay thế</t>
-  </si>
-  <si>
-    <t>Người lập</t>
-  </si>
-  <si>
-    <t>TBP. Bảo hành</t>
-  </si>
-  <si>
     <t>Website: http://vnetgps.vn/</t>
   </si>
   <si>
     <t>BÁO GIÁ SỬA CHỮA</t>
   </si>
   <si>
-    <t>Hà Nội, ngày tháng  năm 202</t>
+    <t>TBP. Bảo Hành</t>
+  </si>
+  <si>
+    <t>Người Lập</t>
+  </si>
+  <si>
+    <t>Mô Tả Linh Kiện Thay Thế</t>
+  </si>
+  <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
+    <t>Xác Định Lỗi</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày  tháng  năm 202</t>
+  </si>
+  <si>
+    <t>Đơn 
+Vị Tính</t>
   </si>
   <si>
     <t xml:space="preserve">Tên cty/ cá nhân: </t>
@@ -102,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
@@ -352,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -413,8 +415,77 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,36 +542,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,7 +572,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
+      <xdr:colOff>930519</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>51287</xdr:rowOff>
     </xdr:to>
@@ -563,7 +604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="233166" y="168517"/>
-          <a:ext cx="1796391" cy="527539"/>
+          <a:ext cx="2016199" cy="527539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,9 +617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -616,9 +657,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,7 +729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,17 +902,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
@@ -889,81 +930,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="A5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -973,11 +1014,11 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -987,11 +1028,11 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1002,11 +1043,11 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1024,55 +1065,55 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="I10" s="12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="8"/>
+    <row r="12" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="39"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,162 +1122,172 @@
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="8"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="29"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="A23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F24" s="4"/>
+    <row r="24" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F25" s="4"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -1290,31 +1341,26 @@
     <row r="42" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA42" s="2"/>
     </row>
+    <row r="43" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA43" s="2"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="19">
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F14:J14"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://vnetgps.vn"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://vnetgps.vn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0" top="1.75" bottom="0" header="0" footer="0"/>
   <pageSetup scale="28" orientation="landscape" r:id="rId2"/>
